--- a/doc/Measurement_error_depending_on_note_length.xlsx
+++ b/doc/Measurement_error_depending_on_note_length.xlsx
@@ -154,10 +154,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -171,6 +171,20 @@
     <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="0"/>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+    </row>
     <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
@@ -209,7 +223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>0.1</v>
       </c>
@@ -241,7 +255,7 @@
         <v>0.047297473780454</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>0.2</v>
       </c>
@@ -273,7 +287,7 @@
         <v>0.023648736890227</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>0.3</v>
       </c>
@@ -689,7 +703,7 @@
         <v>0.00315316491869693</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>1.6</v>
       </c>
